--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/lanrenByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/lanrenByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="3585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9840" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
   </si>
   <si>
     <t>smsCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -479,12 +471,13 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -498,25 +491,25 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -529,23 +522,23 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
+      <c r="B2" s="1">
+        <v>18683917194</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="D2">
+        <v>4.3674212173748101E+18</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>2781</v>
@@ -558,7 +551,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/lanrenByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/lanrenByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9840" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>it789123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18683917194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4367421217374810000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +479,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -522,14 +530,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>18683917194</v>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>4.3674212173748101E+18</v>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E2">
         <v>11</v>
